--- a/Task2 TestCase BookMyShow.xlsx
+++ b/Task2 TestCase BookMyShow.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Guvi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mohanraj\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83977DD5-5CDE-45A7-8318-D0041B01CEEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7408DF10-AD35-46C9-B56D-A45450D4E9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BMS Index" sheetId="2" r:id="rId1"/>
     <sheet name="Scrum-4" sheetId="1" r:id="rId2"/>
     <sheet name="Scrum-5" sheetId="3" r:id="rId3"/>
     <sheet name="Scrum-9" sheetId="4" r:id="rId4"/>
+    <sheet name="Scrum-6" sheetId="5" r:id="rId5"/>
+    <sheet name="Scrum-7" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="184">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -257,18 +259,6 @@
     <t>TC - 10</t>
   </si>
   <si>
-    <t xml:space="preserve">TC - 1 </t>
-  </si>
-  <si>
-    <t>TC - 2</t>
-  </si>
-  <si>
-    <t>TC - 3</t>
-  </si>
-  <si>
-    <t>TC - 4</t>
-  </si>
-  <si>
     <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
 2.Enter the valid credentials.
 3.Click on 'city' drop down in right side top corner.
@@ -304,9 +294,6 @@
     <t>TS - 4</t>
   </si>
   <si>
-    <t>TC - 1</t>
-  </si>
-  <si>
     <t>Verify whether the user should be able to book tickets using Visa card</t>
   </si>
   <si>
@@ -434,6 +421,305 @@
   </si>
   <si>
     <t>Bug detail Scrum-10</t>
+  </si>
+  <si>
+    <t>SuccessfullyError message popped as "Invalid username and password"</t>
+  </si>
+  <si>
+    <t>Successfully Error message popped as "Invalid username and password"</t>
+  </si>
+  <si>
+    <t>Successfully logined into home page</t>
+  </si>
+  <si>
+    <t>As a user, I should be able to book tickets in popular cities.</t>
+  </si>
+  <si>
+    <t>User should be ableselect popular cities</t>
+  </si>
+  <si>
+    <t>User should be able select non-popular cities.</t>
+  </si>
+  <si>
+    <t>User should be able to switch between non-popular cities.</t>
+  </si>
+  <si>
+    <t>User should be able to book tickets in non-popular cities.</t>
+  </si>
+  <si>
+    <t>User should be able to successfully book tickets in non-popular cities</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "coimbatore" city name in search text box and hit the enter button.
+</t>
+  </si>
+  <si>
+    <t>User should be successfully selected the Coimbatore city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Mysuru" city name in search text box and hit the enter button.
+5. Refresh, enter the "coimbatore" city name in search text box and hit enter button.
+</t>
+  </si>
+  <si>
+    <t>1 User should be successfully selected the Mysuru city.
+2.User should be successfully selected the Coimbatore city</t>
+  </si>
+  <si>
+    <t>User should be successfully selected the Mysuru city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Mysuru" city name in search text box and hit the enter button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Varanasi" city name in search text box and hit the enter button.
+5. Search the movie and book ticket
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Chagallu" city name in search text box and hit the enter button.
+5. Search the movie and book ticket
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Ranchi" city name in search text box and hit the enter button.
+5. Search the movie and book ticket
+</t>
+  </si>
+  <si>
+    <t>Successfully selected coimbatore city</t>
+  </si>
+  <si>
+    <t>Successfully selected mysuru city</t>
+  </si>
+  <si>
+    <t>Successfully swapped the city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Agara" city name in search text box and hit the enter button.
+5. Search the movie and book ticket
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'city' drop down in right side top corner.
+4.Enter the "Aligarh" city name in search text box and hit the enter button.
+5. Search the movie and book ticket
+</t>
+  </si>
+  <si>
+    <t>Successfully selected aligarh city</t>
+  </si>
+  <si>
+    <t>Successfully selected Agara city</t>
+  </si>
+  <si>
+    <t>Successfully selected varanasi city</t>
+  </si>
+  <si>
+    <t>Successfully selected Ranchi city</t>
+  </si>
+  <si>
+    <t>Successfully selected Chagallu city</t>
+  </si>
+  <si>
+    <t>Successfully selected Ahmedabad city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Chennai city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Bangalore city</t>
+  </si>
+  <si>
+    <t>Successfully swapped city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Bagalore city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Delhi-NCR city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Ahmedabad city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Kolkata city</t>
+  </si>
+  <si>
+    <t>Successfully selected the Mumbai city</t>
+  </si>
+  <si>
+    <t>User should be able to Select movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'search bar' .
+4.Enter the "Amaran" movie name in search text box and hit the enter button.
+</t>
+  </si>
+  <si>
+    <t>User should be successfully selected the Amaran movie</t>
+  </si>
+  <si>
+    <t>Successfully selected the Amaran movie</t>
+  </si>
+  <si>
+    <t>Verify whether user can be able to select movie using Search text box.</t>
+  </si>
+  <si>
+    <t>Verify whether user can be able to select movie based on language.</t>
+  </si>
+  <si>
+    <t>1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'Search text box.
+4.Click Tamil tab button on the right side top corner.</t>
+  </si>
+  <si>
+    <t>User should be successfully filtered the tamil movies</t>
+  </si>
+  <si>
+    <t>Successfully displayed listof tamil movies</t>
+  </si>
+  <si>
+    <t>User should be able to book tickets in regional language.</t>
+  </si>
+  <si>
+    <t>User should be successfully selected the "Solo Leveling" movie</t>
+  </si>
+  <si>
+    <t>Successfully selected the Solo Leveling movie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'Search text box.
+4.Click Japanese tab button on the right side top corner.
+5.Select "Solo Leveling" movie button.
+</t>
+  </si>
+  <si>
+    <t>User should be able to book tickets in foreign language.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Go to the browser and open the URL:https://in.bookmyshow.com/
+2.Enter the valid credentials.
+3.Click on 'Search text box.
+4.Click Tamil tab button on the right side top corner.
+5.Select "Thalapathi" movie button.
+</t>
+  </si>
+  <si>
+    <t>User should be successfully selected the Thalapathi movie</t>
+  </si>
+  <si>
+    <t>Successfully selected the Thalapathi movie.</t>
+  </si>
+  <si>
+    <t>TS - 5</t>
+  </si>
+  <si>
+    <t>TC - 11</t>
+  </si>
+  <si>
+    <t>TC - 12</t>
+  </si>
+  <si>
+    <t>TC - 13</t>
+  </si>
+  <si>
+    <t>TC - 14</t>
+  </si>
+  <si>
+    <t>TC - 15</t>
+  </si>
+  <si>
+    <t>TC - 16</t>
+  </si>
+  <si>
+    <t>TC - 17</t>
+  </si>
+  <si>
+    <t>TC - 18</t>
+  </si>
+  <si>
+    <t>TC - 19</t>
+  </si>
+  <si>
+    <t>TC - 20</t>
+  </si>
+  <si>
+    <t>TC - 21</t>
+  </si>
+  <si>
+    <t>TC - 22</t>
+  </si>
+  <si>
+    <t>TC - 23</t>
+  </si>
+  <si>
+    <t>TC - 24</t>
+  </si>
+  <si>
+    <t>TC - 25</t>
+  </si>
+  <si>
+    <t>TC - 26</t>
+  </si>
+  <si>
+    <t>TC - 27</t>
+  </si>
+  <si>
+    <t>TC - 28</t>
+  </si>
+  <si>
+    <t>TC - 29</t>
+  </si>
+  <si>
+    <t>TC - 30</t>
+  </si>
+  <si>
+    <t>TC - 31</t>
+  </si>
+  <si>
+    <t>TC - 32</t>
+  </si>
+  <si>
+    <t>TC - 33</t>
+  </si>
+  <si>
+    <t>TC - 34</t>
+  </si>
+  <si>
+    <t>TC - 35</t>
+  </si>
+  <si>
+    <t>TC - 36</t>
   </si>
 </sst>
 </file>
@@ -799,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B09760-8AEA-4B8C-8F75-5EA80093F2A5}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,10 +1115,10 @@
         <v>25</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>26</v>
@@ -858,7 +1144,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="E2" s="5">
         <v>4</v>
@@ -867,13 +1153,13 @@
         <v>4</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J2" s="5">
         <v>100</v>
@@ -888,28 +1174,28 @@
         <v>32</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>35</v>
+        <v>106</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E3" s="5">
         <v>10</v>
       </c>
       <c r="F3" s="5">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I3" s="5">
-        <v>8</v>
+        <v>91</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>91</v>
       </c>
       <c r="J3" s="5">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="K3" s="1"/>
     </row>
@@ -924,7 +1210,7 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="E4" s="5">
         <v>9</v>
@@ -936,7 +1222,7 @@
         <v>1</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="I4" s="5">
         <v>4</v>
@@ -945,7 +1231,7 @@
         <v>43</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="33.6" x14ac:dyDescent="0.3">
@@ -959,14 +1245,20 @@
         <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="J5" s="1">
+        <v>100</v>
+      </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" ht="16.8" x14ac:dyDescent="0.3">
@@ -974,13 +1266,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -995,13 +1287,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1022,7 +1314,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1084,7 +1376,9 @@
       <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
     </row>
@@ -1107,7 +1401,9 @@
       <c r="F3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
@@ -1130,7 +1426,9 @@
       <c r="F4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
@@ -1153,7 +1451,9 @@
       <c r="F5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
@@ -1167,8 +1467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BFF019-228C-4D52-831B-83FC5B4E8727}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1219,7 +1519,7 @@
         <v>52</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>43</v>
@@ -1231,10 +1531,10 @@
         <v>45</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -1246,7 +1546,7 @@
         <v>52</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>47</v>
@@ -1258,10 +1558,10 @@
         <v>45</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1"/>
     </row>
@@ -1273,7 +1573,7 @@
         <v>38</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>43</v>
@@ -1284,8 +1584,12 @@
       <c r="F4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="G4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="144" x14ac:dyDescent="0.3">
@@ -1296,7 +1600,7 @@
         <v>53</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>55</v>
@@ -1307,8 +1611,12 @@
       <c r="F5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
@@ -1319,7 +1627,7 @@
         <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>43</v>
@@ -1330,19 +1638,23 @@
       <c r="F6" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>43</v>
@@ -1353,100 +1665,120 @@
       <c r="F7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
+      <c r="G7" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>158</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="G8" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>159</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
+      <c r="G9" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
+      <c r="G10" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>161</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>43</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
+      <c r="G11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
       <c r="I11" s="1"/>
     </row>
   </sheetData>
@@ -1459,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA2371E4-CCAA-49B6-9ACC-8866DCB1F75E}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1505,130 +1837,130 @@
     </row>
     <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>73</v>
+        <v>172</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>65</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>66</v>
+        <v>173</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>82</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1636,22 +1968,22 @@
     </row>
     <row r="7" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>46</v>
+        <v>176</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1659,49 +1991,49 @@
     </row>
     <row r="8" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
+        <v>177</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>178</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
@@ -1709,22 +2041,22 @@
     </row>
     <row r="10" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>62</v>
+        <v>179</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
@@ -1734,4 +2066,480 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65853CAA-CA9A-42FD-A164-35B476092859}">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB72A98F-4CE6-4686-9382-6944AA19AD88}">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.77734375" customWidth="1"/>
+    <col min="3" max="3" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.5546875" customWidth="1"/>
+    <col min="5" max="5" width="35.33203125" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" customWidth="1"/>
+    <col min="7" max="7" width="26.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>